--- a/AM_10_1.xlsx
+++ b/AM_10_1.xlsx
@@ -801,17 +801,17 @@
       <c r="Q3" s="9" t="n">
         <v>63.753421783447266</v>
       </c>
-      <c r="R3" s="8">
-        <v>100</v>
-      </c>
-      <c r="S3" s="9">
-        <v>100</v>
-      </c>
-      <c r="T3" s="8">
-        <v>100</v>
-      </c>
-      <c r="U3" s="9">
-        <v>100</v>
+      <c r="R3" s="8" t="n">
+        <v>1235.0</v>
+      </c>
+      <c r="S3" s="9" t="n">
+        <v>246.02110290527344</v>
+      </c>
+      <c r="T3" s="8" t="n">
+        <v>1256.0</v>
+      </c>
+      <c r="U3" s="9" t="n">
+        <v>410.1022644042969</v>
       </c>
     </row>
     <row ht="16.2" r="4" spans="1:21" thickBot="1" x14ac:dyDescent="0.35">
@@ -866,17 +866,17 @@
       <c r="Q4" s="9" t="n">
         <v>59.52556228637695</v>
       </c>
-      <c r="R4" s="8">
-        <v>200</v>
-      </c>
-      <c r="S4" s="9">
-        <v>120</v>
-      </c>
-      <c r="T4" s="8">
-        <v>27</v>
-      </c>
-      <c r="U4" s="9">
-        <v>120</v>
+      <c r="R4" s="8" t="n">
+        <v>1278.0</v>
+      </c>
+      <c r="S4" s="9" t="n">
+        <v>229.24388122558594</v>
+      </c>
+      <c r="T4" s="8" t="n">
+        <v>1718.0</v>
+      </c>
+      <c r="U4" s="9" t="n">
+        <v>323.6660461425781</v>
       </c>
     </row>
     <row ht="16.2" r="5" spans="1:21" thickBot="1" x14ac:dyDescent="0.35">
@@ -931,17 +931,17 @@
       <c r="Q5" s="9" t="n">
         <v>59.79399871826172</v>
       </c>
-      <c r="R5" s="8">
-        <v>1000</v>
-      </c>
-      <c r="S5" s="9">
-        <v>130</v>
-      </c>
-      <c r="T5" s="8">
-        <v>320</v>
-      </c>
-      <c r="U5" s="9">
-        <v>144</v>
+      <c r="R5" s="8" t="n">
+        <v>1307.0</v>
+      </c>
+      <c r="S5" s="9" t="n">
+        <v>229.51231384277344</v>
+      </c>
+      <c r="T5" s="8" t="n">
+        <v>1606.0</v>
+      </c>
+      <c r="U5" s="9" t="n">
+        <v>326.88726806640625</v>
       </c>
     </row>
     <row ht="16.2" r="6" spans="1:21" thickBot="1" x14ac:dyDescent="0.35">
@@ -996,17 +996,17 @@
       <c r="Q6" s="9" t="n">
         <v>74.08818817138672</v>
       </c>
-      <c r="R6" s="8">
-        <v>421.5</v>
-      </c>
-      <c r="S6" s="9">
-        <v>13.21</v>
-      </c>
-      <c r="T6" s="8">
-        <v>421.5</v>
-      </c>
-      <c r="U6" s="9">
-        <v>140</v>
+      <c r="R6" s="8" t="n">
+        <v>1265.0</v>
+      </c>
+      <c r="S6" s="9" t="n">
+        <v>226.5595245361328</v>
+      </c>
+      <c r="T6" s="8" t="n">
+        <v>1225.0</v>
+      </c>
+      <c r="U6" s="9" t="n">
+        <v>374.2661437988281</v>
       </c>
     </row>
     <row ht="16.2" r="7" spans="1:21" thickBot="1" x14ac:dyDescent="0.35">
@@ -1061,17 +1061,17 @@
       <c r="Q7" s="9" t="n">
         <v>56.6398811340332</v>
       </c>
-      <c r="R7" s="10">
-        <v>502.22</v>
-      </c>
-      <c r="S7" s="9">
-        <v>150</v>
-      </c>
-      <c r="T7" s="10">
-        <v>502.22</v>
-      </c>
-      <c r="U7" s="9">
-        <v>150</v>
+      <c r="R7" s="10" t="n">
+        <v>1408.0</v>
+      </c>
+      <c r="S7" s="9" t="n">
+        <v>217.5669403076172</v>
+      </c>
+      <c r="T7" s="10" t="n">
+        <v>1662.0</v>
+      </c>
+      <c r="U7" s="9" t="n">
+        <v>336.6851806640625</v>
       </c>
     </row>
     <row ht="16.8" r="8" spans="1:21" thickBot="1" thickTop="1" x14ac:dyDescent="0.35">
